--- a/data/Bioinformation_6_24.xlsx
+++ b/data/Bioinformation_6_24.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,9 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -54,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -115,6 +114,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -143,7 +154,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -186,10 +197,6 @@
       <alignment wrapText="1"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
-      <protection locked="1" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="1" hidden="1"/>
@@ -206,12 +213,16 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,74 +230,7 @@
     <cellStyle name="Comma 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -581,8 +525,8 @@
   </sheetPr>
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -844,329 +788,329 @@
           <t>B72/20 - Casterra</t>
         </is>
       </c>
-      <c r="BI1" s="13" t="n"/>
-      <c r="BJ1" s="13" t="n"/>
+      <c r="BI1" s="18" t="n"/>
+      <c r="BJ1" s="19" t="n"/>
       <c r="BK1" s="4" t="n"/>
       <c r="BL1" s="4" t="n"/>
       <c r="BM1" s="7" t="n"/>
     </row>
     <row r="2" ht="84" customHeight="1">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Entry Type</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>Exp Type</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>Role Ending</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>Jira name</t>
         </is>
       </c>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>Employee Name</t>
         </is>
       </c>
-      <c r="H2" s="14" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>Approved by</t>
         </is>
       </c>
-      <c r="I2" s="14" t="inlineStr">
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="J2" s="14" t="inlineStr">
+      <c r="J2" s="13" t="inlineStr">
         <is>
           <t>FTE Contract</t>
         </is>
       </c>
-      <c r="K2" s="14" t="inlineStr">
+      <c r="K2" s="13" t="inlineStr">
         <is>
           <t>FTE left to Assign</t>
         </is>
       </c>
-      <c r="L2" s="15" t="inlineStr">
+      <c r="L2" s="14" t="inlineStr">
         <is>
           <t>P21 - agPlenus Tech</t>
         </is>
       </c>
-      <c r="M2" s="15" t="inlineStr">
+      <c r="M2" s="14" t="inlineStr">
         <is>
           <t>P210 - Herbicides Corteva</t>
         </is>
       </c>
-      <c r="N2" s="15" t="inlineStr">
+      <c r="N2" s="14" t="inlineStr">
         <is>
           <t>P33 - Insectecide</t>
         </is>
       </c>
-      <c r="O2" s="15" t="inlineStr">
+      <c r="O2" s="14" t="inlineStr">
         <is>
           <t>P211 - Herbicides APTH1</t>
         </is>
       </c>
-      <c r="P2" s="16" t="inlineStr">
+      <c r="P2" s="15" t="inlineStr">
         <is>
           <t>P23 - Herbicides</t>
         </is>
       </c>
-      <c r="Q2" s="15" t="inlineStr">
+      <c r="Q2" s="14" t="inlineStr">
         <is>
           <t>P24 - Fungicides</t>
         </is>
       </c>
-      <c r="R2" s="15" t="inlineStr">
+      <c r="R2" s="14" t="inlineStr">
         <is>
           <t>P999 - General</t>
         </is>
       </c>
-      <c r="S2" s="15" t="inlineStr">
+      <c r="S2" s="14" t="inlineStr">
         <is>
           <t>P145 - Corteva</t>
         </is>
       </c>
-      <c r="T2" s="15" t="inlineStr">
+      <c r="T2" s="14" t="inlineStr">
         <is>
           <t>P192-LAV 321</t>
         </is>
       </c>
-      <c r="U2" s="15" t="inlineStr">
+      <c r="U2" s="14" t="inlineStr">
         <is>
           <t>P19 - Yalos</t>
         </is>
       </c>
-      <c r="V2" s="15" t="inlineStr">
+      <c r="V2" s="14" t="inlineStr">
         <is>
           <t>P84-New program</t>
         </is>
       </c>
-      <c r="W2" s="15" t="inlineStr">
+      <c r="W2" s="14" t="inlineStr">
         <is>
           <t>P82 - ICL</t>
         </is>
       </c>
-      <c r="X2" s="15" t="inlineStr">
+      <c r="X2" s="14" t="inlineStr">
         <is>
           <t>P86 - Product</t>
         </is>
       </c>
-      <c r="Y2" s="15" t="inlineStr">
+      <c r="Y2" s="14" t="inlineStr">
         <is>
           <t>P85-Syngenta</t>
         </is>
       </c>
-      <c r="Z2" s="15" t="inlineStr">
+      <c r="Z2" s="14" t="inlineStr">
         <is>
           <t>P87 - LAV311</t>
         </is>
       </c>
-      <c r="AA2" s="15" t="inlineStr">
+      <c r="AA2" s="14" t="inlineStr">
         <is>
           <t>P999 - General2</t>
         </is>
       </c>
-      <c r="AB2" s="15" t="inlineStr">
+      <c r="AB2" s="14" t="inlineStr">
         <is>
           <t>P271 - CPB Upkeep Computational</t>
         </is>
       </c>
-      <c r="AC2" s="15" t="inlineStr">
+      <c r="AC2" s="14" t="inlineStr">
         <is>
           <t>P279 - CPB projects Computational</t>
         </is>
       </c>
-      <c r="AD2" s="15" t="inlineStr">
+      <c r="AD2" s="14" t="inlineStr">
         <is>
           <t>P275 - CPB Upkeep Experimental</t>
         </is>
       </c>
-      <c r="AE2" s="15" t="inlineStr">
+      <c r="AE2" s="14" t="inlineStr">
         <is>
           <t>P281 - CPB projects Experimental</t>
         </is>
       </c>
-      <c r="AF2" s="15" t="inlineStr">
+      <c r="AF2" s="14" t="inlineStr">
         <is>
           <t>P250 - TcdAB2</t>
         </is>
       </c>
-      <c r="AG2" s="15" t="inlineStr">
+      <c r="AG2" s="14" t="inlineStr">
         <is>
           <t>P251 - MRSA 50S2</t>
         </is>
       </c>
-      <c r="AH2" s="15" t="inlineStr">
+      <c r="AH2" s="14" t="inlineStr">
         <is>
           <t>P252 - Cancer Immun adjuvant</t>
         </is>
       </c>
-      <c r="AI2" s="15" t="inlineStr">
+      <c r="AI2" s="14" t="inlineStr">
         <is>
           <t>P258 - New Indication TBD</t>
         </is>
       </c>
-      <c r="AJ2" s="15" t="inlineStr">
+      <c r="AJ2" s="14" t="inlineStr">
         <is>
           <t>P255 - IBD</t>
         </is>
       </c>
-      <c r="AK2" s="15" t="inlineStr">
+      <c r="AK2" s="14" t="inlineStr">
         <is>
           <t>P999 - General4</t>
         </is>
       </c>
-      <c r="AL2" s="15" t="inlineStr">
+      <c r="AL2" s="14" t="inlineStr">
         <is>
           <t>P197 - Breeding general</t>
         </is>
       </c>
-      <c r="AM2" s="15" t="inlineStr">
+      <c r="AM2" s="14" t="inlineStr">
         <is>
           <t>P205 - Product development</t>
         </is>
       </c>
-      <c r="AN2" s="15" t="inlineStr">
+      <c r="AN2" s="14" t="inlineStr">
         <is>
           <t>P209 - Computational Dev</t>
         </is>
       </c>
-      <c r="AO2" s="15" t="inlineStr">
+      <c r="AO2" s="14" t="inlineStr">
         <is>
           <t>P212 - Propagation general</t>
         </is>
       </c>
-      <c r="AP2" s="15" t="inlineStr">
+      <c r="AP2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">P213 - Breeding general </t>
         </is>
       </c>
-      <c r="AQ2" s="15" t="inlineStr">
+      <c r="AQ2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">P216 - Core collection &amp; Data base </t>
         </is>
       </c>
-      <c r="AR2" s="15" t="inlineStr">
+      <c r="AR2" s="14" t="inlineStr">
         <is>
           <t>P290 - Colors</t>
         </is>
       </c>
-      <c r="AS2" s="15" t="inlineStr">
+      <c r="AS2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">P273 - Product- Upkeep MB </t>
         </is>
       </c>
-      <c r="AT2" s="15" t="inlineStr">
+      <c r="AT2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">P274 - Product- Upkeep CP </t>
         </is>
       </c>
-      <c r="AU2" s="15" t="inlineStr">
+      <c r="AU2" s="14" t="inlineStr">
         <is>
           <t>P272 - Product- Upkeep GR</t>
         </is>
       </c>
-      <c r="AV2" s="15" t="inlineStr">
+      <c r="AV2" s="14" t="inlineStr">
         <is>
           <t>P264 -Product CP</t>
         </is>
       </c>
-      <c r="AW2" s="15" t="inlineStr">
+      <c r="AW2" s="14" t="inlineStr">
         <is>
           <t>P258 - Rafael</t>
         </is>
       </c>
-      <c r="AX2" s="15" t="inlineStr">
+      <c r="AX2" s="14" t="inlineStr">
         <is>
           <t>P265 - Product- MB</t>
         </is>
       </c>
-      <c r="AY2" s="15" t="inlineStr">
+      <c r="AY2" s="14" t="inlineStr">
         <is>
           <t>P282 - Product general</t>
         </is>
       </c>
-      <c r="AZ2" s="15" t="inlineStr">
+      <c r="AZ2" s="14" t="inlineStr">
         <is>
           <t>P401 - The Kitchen</t>
         </is>
       </c>
-      <c r="BA2" s="15" t="inlineStr">
+      <c r="BA2" s="14" t="inlineStr">
         <is>
           <t>P165 - Verb Biotics</t>
         </is>
       </c>
-      <c r="BB2" s="15" t="inlineStr">
+      <c r="BB2" s="14" t="inlineStr">
         <is>
           <t>P400 - Corp4clima</t>
         </is>
       </c>
-      <c r="BC2" s="15" t="inlineStr">
+      <c r="BC2" s="14" t="inlineStr">
         <is>
           <t>P401 - Casterra DB &amp; LIMS</t>
         </is>
       </c>
-      <c r="BD2" s="15" t="inlineStr">
+      <c r="BD2" s="14" t="inlineStr">
         <is>
           <t>P402 - Casterra Generator</t>
         </is>
       </c>
-      <c r="BE2" s="15" t="inlineStr">
+      <c r="BE2" s="14" t="inlineStr">
         <is>
           <t>P403 - Casterra RUN Generator</t>
         </is>
       </c>
-      <c r="BF2" s="15" t="inlineStr">
+      <c r="BF2" s="14" t="inlineStr">
         <is>
           <t>P404 - Casterra Developing New Varieties</t>
         </is>
       </c>
-      <c r="BG2" s="17" t="inlineStr">
+      <c r="BG2" s="16" t="inlineStr">
         <is>
           <t>P405 - Casterra Develop no RICIN lines</t>
         </is>
       </c>
-      <c r="BH2" s="17" t="inlineStr">
+      <c r="BH2" s="16" t="inlineStr">
         <is>
           <t>P999 - General3</t>
         </is>
       </c>
-      <c r="BI2" s="18" t="inlineStr">
+      <c r="BI2" s="16" t="inlineStr">
         <is>
           <t>OH</t>
         </is>
       </c>
-      <c r="BJ2" s="18" t="inlineStr">
+      <c r="BJ2" s="16" t="inlineStr">
         <is>
           <t>P0 - Vacation / Sickness</t>
         </is>
       </c>
-      <c r="BK2" s="18" t="inlineStr">
+      <c r="BK2" s="16" t="inlineStr">
         <is>
           <t>New project 1</t>
         </is>
       </c>
-      <c r="BL2" s="18" t="inlineStr">
+      <c r="BL2" s="16" t="inlineStr">
         <is>
           <t>New project 2</t>
         </is>
@@ -1365,13 +1309,13 @@
       <c r="BI3" s="1" t="n">
         <v>21.24375000000001</v>
       </c>
-      <c r="BJ3" s="19" t="n">
+      <c r="BJ3" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="BK3" s="19" t="n">
-        <v/>
-      </c>
-      <c r="BL3" s="19" t="n">
+      <c r="BK3" s="17" t="n">
+        <v/>
+      </c>
+      <c r="BL3" s="17" t="n">
         <v/>
       </c>
     </row>
@@ -1567,13 +1511,13 @@
       <c r="BI4" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="BJ4" s="19" t="n">
+      <c r="BJ4" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="BK4" s="19" t="n">
-        <v/>
-      </c>
-      <c r="BL4" s="19" t="n">
+      <c r="BK4" s="17" t="n">
+        <v/>
+      </c>
+      <c r="BL4" s="17" t="n">
         <v/>
       </c>
     </row>
@@ -1769,13 +1713,13 @@
       <c r="BI5" s="1" t="n">
         <v>7.731250000000003</v>
       </c>
-      <c r="BJ5" s="19" t="n">
+      <c r="BJ5" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="BK5" s="19" t="n">
-        <v/>
-      </c>
-      <c r="BL5" s="19" t="n">
+      <c r="BK5" s="17" t="n">
+        <v/>
+      </c>
+      <c r="BL5" s="17" t="n">
         <v/>
       </c>
     </row>
@@ -1971,13 +1915,13 @@
       <c r="BI6" s="1" t="n">
         <v>15.3125</v>
       </c>
-      <c r="BJ6" s="19" t="n">
+      <c r="BJ6" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="BK6" s="19" t="n">
-        <v/>
-      </c>
-      <c r="BL6" s="19" t="n">
+      <c r="BK6" s="17" t="n">
+        <v/>
+      </c>
+      <c r="BL6" s="17" t="n">
         <v/>
       </c>
     </row>
@@ -2173,13 +2117,13 @@
       <c r="BI7" s="1" t="n">
         <v>28.49791666666667</v>
       </c>
-      <c r="BJ7" s="19" t="n">
+      <c r="BJ7" s="17" t="n">
         <v>5.00625</v>
       </c>
-      <c r="BK7" s="19" t="n">
-        <v/>
-      </c>
-      <c r="BL7" s="19" t="n">
+      <c r="BK7" s="17" t="n">
+        <v/>
+      </c>
+      <c r="BL7" s="17" t="n">
         <v/>
       </c>
     </row>
@@ -2245,9 +2189,9 @@
       <c r="BG8" s="1" t="n"/>
       <c r="BH8" s="1" t="n"/>
       <c r="BI8" s="1" t="n"/>
-      <c r="BJ8" s="19" t="n"/>
-      <c r="BK8" s="19" t="n"/>
-      <c r="BL8" s="19" t="n"/>
+      <c r="BJ8" s="17" t="n"/>
+      <c r="BK8" s="17" t="n"/>
+      <c r="BL8" s="17" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -2311,9 +2255,9 @@
       <c r="BG9" s="1" t="n"/>
       <c r="BH9" s="1" t="n"/>
       <c r="BI9" s="1" t="n"/>
-      <c r="BJ9" s="19" t="n"/>
-      <c r="BK9" s="19" t="n"/>
-      <c r="BL9" s="19" t="n"/>
+      <c r="BJ9" s="17" t="n"/>
+      <c r="BK9" s="17" t="n"/>
+      <c r="BL9" s="17" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -2377,9 +2321,9 @@
       <c r="BG10" s="1" t="n"/>
       <c r="BH10" s="1" t="n"/>
       <c r="BI10" s="1" t="n"/>
-      <c r="BJ10" s="19" t="n"/>
-      <c r="BK10" s="19" t="n"/>
-      <c r="BL10" s="19" t="n"/>
+      <c r="BJ10" s="17" t="n"/>
+      <c r="BK10" s="17" t="n"/>
+      <c r="BL10" s="17" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -2443,9 +2387,9 @@
       <c r="BG11" s="1" t="n"/>
       <c r="BH11" s="1" t="n"/>
       <c r="BI11" s="1" t="n"/>
-      <c r="BJ11" s="19" t="n"/>
-      <c r="BK11" s="19" t="n"/>
-      <c r="BL11" s="19" t="n"/>
+      <c r="BJ11" s="17" t="n"/>
+      <c r="BK11" s="17" t="n"/>
+      <c r="BL11" s="17" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -2509,9 +2453,9 @@
       <c r="BG12" s="1" t="n"/>
       <c r="BH12" s="1" t="n"/>
       <c r="BI12" s="1" t="n"/>
-      <c r="BJ12" s="19" t="n"/>
-      <c r="BK12" s="19" t="n"/>
-      <c r="BL12" s="19" t="n"/>
+      <c r="BJ12" s="17" t="n"/>
+      <c r="BK12" s="17" t="n"/>
+      <c r="BL12" s="17" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -2575,9 +2519,9 @@
       <c r="BG13" s="1" t="n"/>
       <c r="BH13" s="1" t="n"/>
       <c r="BI13" s="1" t="n"/>
-      <c r="BJ13" s="19" t="n"/>
-      <c r="BK13" s="19" t="n"/>
-      <c r="BL13" s="19" t="n"/>
+      <c r="BJ13" s="17" t="n"/>
+      <c r="BK13" s="17" t="n"/>
+      <c r="BL13" s="17" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -2641,9 +2585,9 @@
       <c r="BG14" s="1" t="n"/>
       <c r="BH14" s="1" t="n"/>
       <c r="BI14" s="1" t="n"/>
-      <c r="BJ14" s="19" t="n"/>
-      <c r="BK14" s="19" t="n"/>
-      <c r="BL14" s="19" t="n"/>
+      <c r="BJ14" s="17" t="n"/>
+      <c r="BK14" s="17" t="n"/>
+      <c r="BL14" s="17" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Bioinformation_6_24.xlsx
+++ b/data/Bioinformation_6_24.xlsx
@@ -1208,7 +1208,7 @@
         <v>3.25</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>1.5</v>
@@ -1226,7 +1226,7 @@
         <v/>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>11.75</v>
+        <v>7.25</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v/>
@@ -1235,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="AL3" s="1" t="n">
         <v/>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AL4" s="1" t="n">
         <v/>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>1.75</v>
+        <v/>
       </c>
       <c r="AL5" s="1" t="n">
         <v/>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>6.5</v>
+        <v/>
       </c>
       <c r="AL6" s="1" t="n">
         <v/>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="AL7" s="1" t="n">
         <v/>
